--- a/Excel/Stetson/2022.02.08/01.03.2022 STETSON — загрузка.xlsx
+++ b/Excel/Stetson/2022.02.08/01.03.2022 STETSON — загрузка.xlsx
@@ -3,7 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73F021BA-8050-449A-A78B-2CC7489F9BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\Stetson\2022.02.08\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F974DF7-B918-48D5-8FAE-D2FED78AB348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F32E98D-01B6-4B8F-92A3-D76CC8AC4BE8}"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Загрузка" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Загрузка!$G$1:$V$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Загрузка!$A$1:$V$128</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1685,7 +1690,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -1701,6 +1706,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2023,14 +2029,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69987084-BEE3-4328-9ABB-FA66A73EDFDF}">
-  <sheetPr codeName="Лист28">
+  <sheetPr codeName="Лист28" filterMode="1">
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="A1:V128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="V131" sqref="V131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2128,7 +2134,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2196,7 +2202,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -2264,7 +2270,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -2332,7 +2338,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -2400,7 +2406,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -2468,7 +2474,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -2536,7 +2542,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -2604,7 +2610,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -2672,7 +2678,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -2740,7 +2746,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -2808,7 +2814,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>70</v>
       </c>
@@ -2876,7 +2882,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -2944,7 +2950,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -3012,7 +3018,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>81</v>
       </c>
@@ -3080,7 +3086,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>89</v>
       </c>
@@ -3148,7 +3154,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>90</v>
       </c>
@@ -3216,7 +3222,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>91</v>
       </c>
@@ -3284,7 +3290,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>92</v>
       </c>
@@ -3352,7 +3358,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>102</v>
       </c>
@@ -3420,7 +3426,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>108</v>
       </c>
@@ -3488,7 +3494,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>115</v>
       </c>
@@ -3556,7 +3562,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>122</v>
       </c>
@@ -3624,7 +3630,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>128</v>
       </c>
@@ -3692,7 +3698,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>136</v>
       </c>
@@ -3760,7 +3766,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>137</v>
       </c>
@@ -3828,7 +3834,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>142</v>
       </c>
@@ -3896,7 +3902,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>146</v>
       </c>
@@ -3964,7 +3970,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>151</v>
       </c>
@@ -4032,7 +4038,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>157</v>
       </c>
@@ -4100,7 +4106,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>163</v>
       </c>
@@ -4168,7 +4174,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>171</v>
       </c>
@@ -4236,7 +4242,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>176</v>
       </c>
@@ -4304,7 +4310,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>182</v>
       </c>
@@ -4372,7 +4378,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>190</v>
       </c>
@@ -4440,7 +4446,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>198</v>
       </c>
@@ -4508,7 +4514,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>199</v>
       </c>
@@ -4576,7 +4582,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>200</v>
       </c>
@@ -4644,7 +4650,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>201</v>
       </c>
@@ -4712,7 +4718,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>202</v>
       </c>
@@ -4780,7 +4786,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>209</v>
       </c>
@@ -4848,7 +4854,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>210</v>
       </c>
@@ -4916,7 +4922,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>211</v>
       </c>
@@ -4984,7 +4990,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>212</v>
       </c>
@@ -5052,7 +5058,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>216</v>
       </c>
@@ -5120,7 +5126,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>219</v>
       </c>
@@ -5188,7 +5194,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>220</v>
       </c>
@@ -5256,7 +5262,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>221</v>
       </c>
@@ -5324,7 +5330,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>222</v>
       </c>
@@ -5392,7 +5398,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>223</v>
       </c>
@@ -5460,7 +5466,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>231</v>
       </c>
@@ -5528,7 +5534,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>232</v>
       </c>
@@ -5596,7 +5602,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>233</v>
       </c>
@@ -5664,7 +5670,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>234</v>
       </c>
@@ -5732,7 +5738,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>241</v>
       </c>
@@ -5800,7 +5806,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>247</v>
       </c>
@@ -5868,7 +5874,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>252</v>
       </c>
@@ -5936,7 +5942,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>258</v>
       </c>
@@ -6004,7 +6010,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>264</v>
       </c>
@@ -6072,7 +6078,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>271</v>
       </c>
@@ -6140,7 +6146,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>272</v>
       </c>
@@ -6208,7 +6214,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>273</v>
       </c>
@@ -6276,7 +6282,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>274</v>
       </c>
@@ -6344,7 +6350,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>279</v>
       </c>
@@ -6412,7 +6418,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>280</v>
       </c>
@@ -6480,7 +6486,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>281</v>
       </c>
@@ -6548,7 +6554,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>282</v>
       </c>
@@ -6677,14 +6683,14 @@
       <c r="T68" t="s">
         <v>291</v>
       </c>
-      <c r="U68" t="s">
-        <v>289</v>
+      <c r="U68" s="13" t="s">
+        <v>184</v>
       </c>
       <c r="V68" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>293</v>
       </c>
@@ -6752,7 +6758,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>299</v>
       </c>
@@ -6820,7 +6826,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>304</v>
       </c>
@@ -6888,7 +6894,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>309</v>
       </c>
@@ -6956,7 +6962,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>315</v>
       </c>
@@ -7024,7 +7030,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>321</v>
       </c>
@@ -7092,7 +7098,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>327</v>
       </c>
@@ -7160,7 +7166,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>331</v>
       </c>
@@ -7228,7 +7234,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>335</v>
       </c>
@@ -7294,7 +7300,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>342</v>
       </c>
@@ -7362,7 +7368,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>349</v>
       </c>
@@ -7430,7 +7436,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>350</v>
       </c>
@@ -7498,7 +7504,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>351</v>
       </c>
@@ -7566,7 +7572,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>356</v>
       </c>
@@ -7634,7 +7640,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>357</v>
       </c>
@@ -7702,7 +7708,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>358</v>
       </c>
@@ -7770,7 +7776,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>359</v>
       </c>
@@ -7838,7 +7844,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>360</v>
       </c>
@@ -7906,7 +7912,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>365</v>
       </c>
@@ -7974,7 +7980,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>366</v>
       </c>
@@ -8042,7 +8048,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>371</v>
       </c>
@@ -8110,7 +8116,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>377</v>
       </c>
@@ -8178,7 +8184,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>383</v>
       </c>
@@ -8246,7 +8252,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>392</v>
       </c>
@@ -8314,7 +8320,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>393</v>
       </c>
@@ -8382,7 +8388,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>398</v>
       </c>
@@ -8450,7 +8456,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>404</v>
       </c>
@@ -8518,7 +8524,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>409</v>
       </c>
@@ -8586,7 +8592,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>413</v>
       </c>
@@ -8654,7 +8660,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>418</v>
       </c>
@@ -8722,7 +8728,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>423</v>
       </c>
@@ -8790,7 +8796,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>424</v>
       </c>
@@ -8858,7 +8864,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>429</v>
       </c>
@@ -8926,7 +8932,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>430</v>
       </c>
@@ -8994,7 +9000,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>431</v>
       </c>
@@ -9062,7 +9068,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>435</v>
       </c>
@@ -9130,7 +9136,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>436</v>
       </c>
@@ -9198,7 +9204,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>440</v>
       </c>
@@ -9266,7 +9272,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>444</v>
       </c>
@@ -9334,7 +9340,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>445</v>
       </c>
@@ -9402,7 +9408,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>450</v>
       </c>
@@ -9470,7 +9476,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>451</v>
       </c>
@@ -9538,7 +9544,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>452</v>
       </c>
@@ -9606,7 +9612,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>456</v>
       </c>
@@ -9674,7 +9680,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>457</v>
       </c>
@@ -9742,7 +9748,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>458</v>
       </c>
@@ -9810,7 +9816,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>462</v>
       </c>
@@ -9878,7 +9884,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>463</v>
       </c>
@@ -9946,7 +9952,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>467</v>
       </c>
@@ -10014,7 +10020,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>468</v>
       </c>
@@ -10082,7 +10088,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>473</v>
       </c>
@@ -10150,7 +10156,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>474</v>
       </c>
@@ -10280,7 +10286,7 @@
         <v>479</v>
       </c>
       <c r="U121" t="s">
-        <v>289</v>
+        <v>184</v>
       </c>
       <c r="V121" t="s">
         <v>480</v>
@@ -10348,7 +10354,7 @@
         <v>479</v>
       </c>
       <c r="U122" t="s">
-        <v>289</v>
+        <v>184</v>
       </c>
       <c r="V122" t="s">
         <v>480</v>
@@ -10416,7 +10422,7 @@
         <v>485</v>
       </c>
       <c r="U123" t="s">
-        <v>289</v>
+        <v>184</v>
       </c>
       <c r="V123" t="s">
         <v>486</v>
@@ -10484,7 +10490,7 @@
         <v>485</v>
       </c>
       <c r="U124" t="s">
-        <v>289</v>
+        <v>184</v>
       </c>
       <c r="V124" t="s">
         <v>486</v>
@@ -10552,7 +10558,7 @@
         <v>491</v>
       </c>
       <c r="U125" t="s">
-        <v>289</v>
+        <v>184</v>
       </c>
       <c r="V125" t="s">
         <v>492</v>
@@ -10620,7 +10626,7 @@
         <v>491</v>
       </c>
       <c r="U126" t="s">
-        <v>289</v>
+        <v>184</v>
       </c>
       <c r="V126" t="s">
         <v>492</v>
@@ -10688,13 +10694,13 @@
         <v>491</v>
       </c>
       <c r="U127" t="s">
-        <v>289</v>
+        <v>184</v>
       </c>
       <c r="V127" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>495</v>
       </c>
@@ -10763,6 +10769,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:V128" xr:uid="{69987084-BEE3-4328-9ABB-FA66A73EDFDF}">
+    <filterColumn colId="20">
+      <filters>
+        <filter val="кремовый"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="U129:U1048576">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>_xludf.isFormula(U129)</formula>
